--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b1115e5860e640e8/Escritorio/2-Ciclo-Vida-Inteligencia-Artificial-Tarea3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="193" documentId="8_{84FAA150-6E6E-48C1-8551-DC20BE5B0E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2459C11E-25DB-4FD9-ABF7-621E53525EB6}"/>
+  <xr:revisionPtr revIDLastSave="230" documentId="8_{84FAA150-6E6E-48C1-8551-DC20BE5B0E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{271F5387-5538-4198-8E77-35B49F1745DC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{10CDBDB6-C733-4CC2-BF4F-7034269E9B1F}"/>
   </bookViews>
@@ -337,31 +337,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -501,6 +501,33 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -626,6 +653,33 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -751,6 +805,33 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -1502,6 +1583,145 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>687372</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9819</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>490980</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{104010E1-C8D8-3E8A-C453-A2E7B9DCBEFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1296186" y="2994974"/>
+          <a:ext cx="3829639" cy="1109614"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Relevancia: ¿La respuesta se alinea con el contexto? </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Claridad: ¿La respuesta es comprensible y directa?</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ética: ¿La respuesta refleja principios éticos?</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1827,7 +2047,7 @@
   <dimension ref="B2:G20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B2" sqref="B2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1876,12 +2096,18 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
       <c r="G4" s="8">
         <f>D4+E4+F4</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -1891,12 +2117,18 @@
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
       <c r="G5" s="8">
         <f t="shared" ref="G5:G12" si="0">D5+E5+F5</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -1906,12 +2138,18 @@
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
       <c r="G6" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -1921,12 +2159,18 @@
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
       <c r="G7" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -1936,12 +2180,18 @@
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1951,12 +2201,18 @@
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1966,12 +2222,18 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
       <c r="G10" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1981,12 +2243,18 @@
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1996,12 +2264,18 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
       <c r="G12" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
